--- a/_FEB.xlsx
+++ b/_FEB.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5040" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,20 @@
   </si>
   <si>
     <t>1. Looking for functions to produce product list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fixed aspect ratio of product preview photo (small)
+2. Test comment function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fixed homepage subscribe page.
+    As a temporary solution, I use a botton lead users to the subscription framework on the page bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -201,6 +215,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D34"/>
+  <dimension ref="B2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,40 +737,64 @@
       <c r="B20" s="4">
         <v>17</v>
       </c>
+      <c r="C20" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>18</v>
       </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>19</v>
       </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>20</v>
       </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>21</v>
       </c>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>24</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -781,19 +822,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>31</v>
       </c>
     </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <f>SUM(C4:C34)</f>
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
